--- a/xlsx/亚伦·斯沃茨_intext.xlsx
+++ b/xlsx/亚伦·斯沃茨_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="419">
   <si>
     <t>亚伦·斯沃茨</t>
   </si>
@@ -29,7 +29,7 @@
     <t>en-Aaron Swartz</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_亚伦·斯沃茨</t>
+    <t>政策_政策_维基百科_亚伦·斯沃茨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%9B%E4%BD%9C%E5%85%B1%E7%94%A8</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%9C%B0%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>高地公園</t>
+    <t>高地公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
@@ -83,9 +83,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8D%E6%A0%A1</t>
   </si>
   <si>
@@ -131,7 +128,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%9A%9B%E7%B6%B2%E8%B7%AF%E5%90%8D%E4%BA%BA%E5%A0%82</t>
   </si>
   <si>
-    <t>網際網路名人堂</t>
+    <t>网际网路名人堂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%84%91%E7%A8%8B%E5%BA%8F%E5%91%98</t>
@@ -161,7 +158,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E6%81%AF%E4%BE%86%E6%BA%90</t>
   </si>
   <si>
-    <t>消息來源</t>
+    <t>消息来源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/RSS</t>
@@ -185,7 +182,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BA%A4%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>社交媒體</t>
+    <t>社交媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Reddit</t>
@@ -209,7 +206,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%C2%B7%E8%90%8A%E6%96%AF%E6%A0%BC</t>
   </si>
   <si>
-    <t>勞倫斯·萊斯格</t>
+    <t>劳伦斯·莱斯格</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Demand_Progress</t>
@@ -287,7 +284,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%BD%AA%E5%8D%94%E5%95%86</t>
   </si>
   <si>
-    <t>認罪協商</t>
+    <t>认罪协商</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Kyoto</t>
@@ -386,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%96%87%E5%8C%96%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>自由文化運動</t>
+    <t>自由文化运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E6%BA%90%E4%BB%A3%E7%A0%81</t>
@@ -416,13 +413,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E5%BC%8F%E5%8D%94%E5%90%8C%E5%90%88%E4%BD%9C</t>
   </si>
   <si>
-    <t>開放式協同合作</t>
+    <t>开放式协同合作</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E5%85%A7%E5%AE%B9</t>
   </si>
   <si>
-    <t>開放內容</t>
+    <t>开放内容</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Open_communication</t>
@@ -434,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E8%B3%87%E6%96%99</t>
   </si>
   <si>
-    <t>開放資料</t>
+    <t>开放资料</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Open_design</t>
@@ -482,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>開放科學</t>
+    <t>开放科学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Opensource_Architecture</t>
@@ -512,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%BA%90%E7%A1%AC%E4%BB%B6</t>
   </si>
   <si>
-    <t>開源硬件</t>
+    <t>开源硬件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E6%A0%87%E5%87%86</t>
@@ -530,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E8%A9%A6%E5%85%A5%E5%AD%B8</t>
   </si>
   <si>
-    <t>免試入學</t>
+    <t>免试入学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BEWeb</t>
@@ -548,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E6%95%99%E8%82%B2%E8%B3%87%E6%BA%90</t>
   </si>
   <si>
-    <t>開放教育資源</t>
+    <t>开放教育资源</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Open_Music_Model</t>
@@ -602,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94%E8%87%AA%E7%94%B1%E6%B3%95%E5%BE%8B%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>軟體自由法律中心</t>
+    <t>软体自由法律中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E7%A7%91%E5%AD%A6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -686,13 +683,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E5%B7%B4%E8%98%AD</t>
   </si>
   <si>
-    <t>保羅·巴蘭</t>
+    <t>保罗·巴兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E9%A0%93%C2%B7%E7%91%9F%E5%A4%AB</t>
   </si>
   <si>
-    <t>文頓·瑟夫</t>
+    <t>文顿·瑟夫</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Danny_Cohen_(engineer)</t>
@@ -704,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E8%8A%AC%C2%B7%E5%85%8B%E7%BE%85%E5%85%8B</t>
   </si>
   <si>
-    <t>史蒂芬·克羅克</t>
+    <t>史蒂芬·克罗克</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Donald_Davies</t>
@@ -728,7 +725,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E5%8D%A1%E6%81%A9</t>
   </si>
   <si>
-    <t>羅伯特·卡恩</t>
+    <t>罗伯特·卡恩</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Peter_T._Kirstein</t>
@@ -752,13 +749,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%81%A9%C2%B7%E6%B3%A2%E6%96%AF%E7%89%B9%E7%88%BE</t>
   </si>
   <si>
-    <t>喬恩·波斯特爾</t>
+    <t>乔恩·波斯特尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%C2%B7%E6%99%AE%E8%B4%8A</t>
   </si>
   <si>
-    <t>路易斯·普贊</t>
+    <t>路易斯·普赞</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lawrence_Roberts_(scientist)</t>
@@ -788,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E6%A2%85%E7%89%B9%E5%8D%A1%E5%A4%AB</t>
   </si>
   <si>
-    <t>羅伯特·梅特卡夫</t>
+    <t>罗伯特·梅特卡夫</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Jun_Murai</t>
@@ -830,7 +827,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%88%BE%E7%B4%8D%C2%B7%E6%8E%AA%E6%81%A9</t>
   </si>
   <si>
-    <t>維爾納·措恩</t>
+    <t>维尔纳·措恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E6%A0%BC%E6%8B%89%E6%96%AF%C2%B7%E6%81%A9%E6%A0%BC%E5%B0%94%E5%B7%B4%E7%89%B9</t>
@@ -884,7 +881,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%AD%AF%E6%96%AF%E7%89%B9%C2%B7%E5%8D%A1%E5%88%A9</t>
   </si>
   <si>
-    <t>布魯斯特·卡利</t>
+    <t>布鲁斯特·卡利</t>
   </si>
   <si>
     <t>https://fr.wikipedia.org/wiki/Daniel_Karrenberg</t>
@@ -896,7 +893,7 @@
     <t>https://ja.wikipedia.org/wiki/%E9%AB%98%E6%A9%8B%E5%BE%B9_(%E3%83%8D%E3%83%83%E3%83%88%E3%83%AF%E3%83%BC%E3%82%AF%E7%A0%94%E7%A9%B6%E8%80%85)</t>
   </si>
   <si>
-    <t>ja-高橋徹 (ネットワーク研究者)</t>
+    <t>ja-高桥彻 (ネットワーク研究者)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Karen_Banks</t>
@@ -962,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%88%87%E7%88%BE%C2%B7%E8%B2%9D%E5%85%8B</t>
   </si>
   <si>
-    <t>米切爾·貝克</t>
+    <t>米切尔·贝克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E5%8D%A1%E9%87%8C%E5%A5%A5</t>
@@ -998,19 +995,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%C2%B7%E6%B9%AF%E5%A7%86%E6%9E%97%E6%A3%AE</t>
   </si>
   <si>
-    <t>雷·湯姆林森</t>
+    <t>雷·汤姆林森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E7%B4%8D%E6%96%AF%C2%B7%E6%89%98%E7%93%A6%E8%8C%B2</t>
   </si>
   <si>
-    <t>林納斯·托瓦茲</t>
+    <t>林纳斯·托瓦兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E7%88%BE%C2%B7%E9%BD%8A%E9%BB%98%E7%88%BE%E6%9B%BC</t>
   </si>
   <si>
-    <t>菲爾·齊默爾曼</t>
+    <t>菲尔·齐默尔曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%C2%B7%E5%AE%89%E5%BE%B7%E6%A3%AE</t>
@@ -1052,7 +1049,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%B1%B3%C2%B7%E5%A8%81%E7%88%BE%E6%96%AF</t>
   </si>
   <si>
-    <t>吉米·威爾斯</t>
+    <t>吉米·威尔斯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Eric_Allman</t>
@@ -1064,7 +1061,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%87%8C%E5%85%8B%C2%B7%E6%AF%94%E7%B4%8D</t>
   </si>
   <si>
-    <t>埃里克·比納</t>
+    <t>埃里克·比纳</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Karlheinz_Brandenburg</t>
@@ -1118,7 +1115,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%A9%E6%B5%81%E6%B0%93</t>
   </si>
   <si>
-    <t>專利流氓</t>
+    <t>专利流氓</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/All_Rights_Reversed</t>
@@ -1190,7 +1187,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%9B%9C%E7%81%A3</t>
   </si>
   <si>
-    <t>海盜灣</t>
+    <t>海盗湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%9B%97%E5%85%9A</t>
@@ -1214,19 +1211,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%C2%B7%E9%9B%B7%E5%B8%AD%E6%A0%BC</t>
   </si>
   <si>
-    <t>勞倫斯·雷席格</t>
+    <t>劳伦斯·雷席格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B9%E8%B5%B0%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>幹走電影</t>
+    <t>干走电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1244,7 +1241,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1256,7 +1253,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BIBSYS</t>
@@ -1935,7 +1932,7 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G11" t="n">
         <v>5</v>
@@ -1961,10 +1958,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1990,10 +1987,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -2019,10 +2016,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
@@ -2048,10 +2045,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>3</v>
@@ -2077,10 +2074,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -2106,10 +2103,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -2135,10 +2132,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -2164,10 +2161,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>3</v>
@@ -2193,10 +2190,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -2222,10 +2219,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>3</v>
@@ -2251,10 +2248,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>6</v>
@@ -2280,10 +2277,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -2309,10 +2306,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -2338,10 +2335,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -2367,10 +2364,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>3</v>
@@ -2396,10 +2393,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>3</v>
@@ -2425,10 +2422,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2454,10 +2451,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>6</v>
@@ -2483,10 +2480,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2512,10 +2509,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2541,10 +2538,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" t="s">
         <v>27</v>
-      </c>
-      <c r="F32" t="s">
-        <v>28</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2570,10 +2567,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -2599,10 +2596,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2628,10 +2625,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2657,10 +2654,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2686,10 +2683,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -2715,10 +2712,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>9</v>
@@ -2744,10 +2741,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2773,10 +2770,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2802,10 +2799,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2831,10 +2828,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2860,10 +2857,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2889,10 +2886,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2918,10 +2915,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>8</v>
@@ -2947,10 +2944,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3005,10 +3002,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
         <v>91</v>
-      </c>
-      <c r="F48" t="s">
-        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3034,10 +3031,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" t="s">
         <v>93</v>
-      </c>
-      <c r="F49" t="s">
-        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3063,10 +3060,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" t="s">
         <v>95</v>
-      </c>
-      <c r="F50" t="s">
-        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3092,10 +3089,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" t="s">
         <v>97</v>
-      </c>
-      <c r="F51" t="s">
-        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3121,10 +3118,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" t="s">
         <v>99</v>
-      </c>
-      <c r="F52" t="s">
-        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3150,10 +3147,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" t="s">
         <v>101</v>
-      </c>
-      <c r="F53" t="s">
-        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3179,10 +3176,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" t="s">
         <v>103</v>
-      </c>
-      <c r="F54" t="s">
-        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3208,10 +3205,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" t="s">
         <v>105</v>
-      </c>
-      <c r="F55" t="s">
-        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3237,10 +3234,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
         <v>107</v>
-      </c>
-      <c r="F56" t="s">
-        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3266,7 +3263,7 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F57" t="s">
         <v>0</v>
@@ -3295,10 +3292,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>109</v>
+      </c>
+      <c r="F58" t="s">
         <v>110</v>
-      </c>
-      <c r="F58" t="s">
-        <v>111</v>
       </c>
       <c r="G58" t="n">
         <v>10</v>
@@ -3324,10 +3321,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>111</v>
+      </c>
+      <c r="F59" t="s">
         <v>112</v>
-      </c>
-      <c r="F59" t="s">
-        <v>113</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3353,10 +3350,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>113</v>
+      </c>
+      <c r="F60" t="s">
         <v>114</v>
-      </c>
-      <c r="F60" t="s">
-        <v>115</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3382,10 +3379,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>115</v>
+      </c>
+      <c r="F61" t="s">
         <v>116</v>
-      </c>
-      <c r="F61" t="s">
-        <v>117</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3411,10 +3408,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>117</v>
+      </c>
+      <c r="F62" t="s">
         <v>118</v>
-      </c>
-      <c r="F62" t="s">
-        <v>119</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -3440,10 +3437,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>119</v>
+      </c>
+      <c r="F63" t="s">
         <v>120</v>
-      </c>
-      <c r="F63" t="s">
-        <v>121</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3469,10 +3466,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>121</v>
+      </c>
+      <c r="F64" t="s">
         <v>122</v>
-      </c>
-      <c r="F64" t="s">
-        <v>123</v>
       </c>
       <c r="G64" t="n">
         <v>4</v>
@@ -3498,10 +3495,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>123</v>
+      </c>
+      <c r="F65" t="s">
         <v>124</v>
-      </c>
-      <c r="F65" t="s">
-        <v>125</v>
       </c>
       <c r="G65" t="n">
         <v>3</v>
@@ -3527,10 +3524,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>125</v>
+      </c>
+      <c r="F66" t="s">
         <v>126</v>
-      </c>
-      <c r="F66" t="s">
-        <v>127</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3556,10 +3553,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>127</v>
+      </c>
+      <c r="F67" t="s">
         <v>128</v>
-      </c>
-      <c r="F67" t="s">
-        <v>129</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3585,10 +3582,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>129</v>
+      </c>
+      <c r="F68" t="s">
         <v>130</v>
-      </c>
-      <c r="F68" t="s">
-        <v>131</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3614,10 +3611,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>131</v>
+      </c>
+      <c r="F69" t="s">
         <v>132</v>
-      </c>
-      <c r="F69" t="s">
-        <v>133</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3643,10 +3640,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>133</v>
+      </c>
+      <c r="F70" t="s">
         <v>134</v>
-      </c>
-      <c r="F70" t="s">
-        <v>135</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -3672,10 +3669,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>135</v>
+      </c>
+      <c r="F71" t="s">
         <v>136</v>
-      </c>
-      <c r="F71" t="s">
-        <v>137</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3701,10 +3698,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>137</v>
+      </c>
+      <c r="F72" t="s">
         <v>138</v>
-      </c>
-      <c r="F72" t="s">
-        <v>139</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3730,10 +3727,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>139</v>
+      </c>
+      <c r="F73" t="s">
         <v>140</v>
-      </c>
-      <c r="F73" t="s">
-        <v>141</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3759,10 +3756,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>141</v>
+      </c>
+      <c r="F74" t="s">
         <v>142</v>
-      </c>
-      <c r="F74" t="s">
-        <v>143</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3788,10 +3785,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>143</v>
+      </c>
+      <c r="F75" t="s">
         <v>144</v>
-      </c>
-      <c r="F75" t="s">
-        <v>145</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3817,10 +3814,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>145</v>
+      </c>
+      <c r="F76" t="s">
         <v>146</v>
-      </c>
-      <c r="F76" t="s">
-        <v>147</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3846,10 +3843,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>147</v>
+      </c>
+      <c r="F77" t="s">
         <v>148</v>
-      </c>
-      <c r="F77" t="s">
-        <v>149</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3875,10 +3872,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>149</v>
+      </c>
+      <c r="F78" t="s">
         <v>150</v>
-      </c>
-      <c r="F78" t="s">
-        <v>151</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3904,10 +3901,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>151</v>
+      </c>
+      <c r="F79" t="s">
         <v>152</v>
-      </c>
-      <c r="F79" t="s">
-        <v>153</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3933,10 +3930,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>153</v>
+      </c>
+      <c r="F80" t="s">
         <v>154</v>
-      </c>
-      <c r="F80" t="s">
-        <v>155</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -3962,10 +3959,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>155</v>
+      </c>
+      <c r="F81" t="s">
         <v>156</v>
-      </c>
-      <c r="F81" t="s">
-        <v>157</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3991,10 +3988,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>157</v>
+      </c>
+      <c r="F82" t="s">
         <v>158</v>
-      </c>
-      <c r="F82" t="s">
-        <v>159</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -4020,10 +4017,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>159</v>
+      </c>
+      <c r="F83" t="s">
         <v>160</v>
-      </c>
-      <c r="F83" t="s">
-        <v>161</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4049,10 +4046,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>161</v>
+      </c>
+      <c r="F84" t="s">
         <v>162</v>
-      </c>
-      <c r="F84" t="s">
-        <v>163</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4078,10 +4075,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>163</v>
+      </c>
+      <c r="F85" t="s">
         <v>164</v>
-      </c>
-      <c r="F85" t="s">
-        <v>165</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -4107,10 +4104,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>165</v>
+      </c>
+      <c r="F86" t="s">
         <v>166</v>
-      </c>
-      <c r="F86" t="s">
-        <v>167</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4136,10 +4133,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>167</v>
+      </c>
+      <c r="F87" t="s">
         <v>168</v>
-      </c>
-      <c r="F87" t="s">
-        <v>169</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4165,10 +4162,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>169</v>
+      </c>
+      <c r="F88" t="s">
         <v>170</v>
-      </c>
-      <c r="F88" t="s">
-        <v>171</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4194,10 +4191,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>171</v>
+      </c>
+      <c r="F89" t="s">
         <v>172</v>
-      </c>
-      <c r="F89" t="s">
-        <v>173</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4223,10 +4220,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>173</v>
+      </c>
+      <c r="F90" t="s">
         <v>174</v>
-      </c>
-      <c r="F90" t="s">
-        <v>175</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4252,10 +4249,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>175</v>
+      </c>
+      <c r="F91" t="s">
         <v>176</v>
-      </c>
-      <c r="F91" t="s">
-        <v>177</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4281,10 +4278,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>177</v>
+      </c>
+      <c r="F92" t="s">
         <v>178</v>
-      </c>
-      <c r="F92" t="s">
-        <v>179</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4310,10 +4307,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>179</v>
+      </c>
+      <c r="F93" t="s">
         <v>180</v>
-      </c>
-      <c r="F93" t="s">
-        <v>181</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4339,10 +4336,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>181</v>
+      </c>
+      <c r="F94" t="s">
         <v>182</v>
-      </c>
-      <c r="F94" t="s">
-        <v>183</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -4368,10 +4365,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>183</v>
+      </c>
+      <c r="F95" t="s">
         <v>184</v>
-      </c>
-      <c r="F95" t="s">
-        <v>185</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -4397,10 +4394,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>185</v>
+      </c>
+      <c r="F96" t="s">
         <v>186</v>
-      </c>
-      <c r="F96" t="s">
-        <v>187</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4426,10 +4423,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>187</v>
+      </c>
+      <c r="F97" t="s">
         <v>188</v>
-      </c>
-      <c r="F97" t="s">
-        <v>189</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4455,10 +4452,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>189</v>
+      </c>
+      <c r="F98" t="s">
         <v>190</v>
-      </c>
-      <c r="F98" t="s">
-        <v>191</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4484,10 +4481,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>191</v>
+      </c>
+      <c r="F99" t="s">
         <v>192</v>
-      </c>
-      <c r="F99" t="s">
-        <v>193</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4513,10 +4510,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>193</v>
+      </c>
+      <c r="F100" t="s">
         <v>194</v>
-      </c>
-      <c r="F100" t="s">
-        <v>195</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -4542,10 +4539,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>195</v>
+      </c>
+      <c r="F101" t="s">
         <v>196</v>
-      </c>
-      <c r="F101" t="s">
-        <v>197</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4571,10 +4568,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>197</v>
+      </c>
+      <c r="F102" t="s">
         <v>198</v>
-      </c>
-      <c r="F102" t="s">
-        <v>199</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4600,10 +4597,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>199</v>
+      </c>
+      <c r="F103" t="s">
         <v>200</v>
-      </c>
-      <c r="F103" t="s">
-        <v>201</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -4629,10 +4626,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>201</v>
+      </c>
+      <c r="F104" t="s">
         <v>202</v>
-      </c>
-      <c r="F104" t="s">
-        <v>203</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -4658,10 +4655,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>203</v>
+      </c>
+      <c r="F105" t="s">
         <v>204</v>
-      </c>
-      <c r="F105" t="s">
-        <v>205</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -4687,10 +4684,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>205</v>
+      </c>
+      <c r="F106" t="s">
         <v>206</v>
-      </c>
-      <c r="F106" t="s">
-        <v>207</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -4716,10 +4713,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>207</v>
+      </c>
+      <c r="F107" t="s">
         <v>208</v>
-      </c>
-      <c r="F107" t="s">
-        <v>209</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -4745,10 +4742,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>209</v>
+      </c>
+      <c r="F108" t="s">
         <v>210</v>
-      </c>
-      <c r="F108" t="s">
-        <v>211</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4774,10 +4771,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>211</v>
+      </c>
+      <c r="F109" t="s">
         <v>212</v>
-      </c>
-      <c r="F109" t="s">
-        <v>213</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4803,10 +4800,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>121</v>
+      </c>
+      <c r="F110" t="s">
         <v>122</v>
-      </c>
-      <c r="F110" t="s">
-        <v>123</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -4832,10 +4829,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>213</v>
+      </c>
+      <c r="F111" t="s">
         <v>214</v>
-      </c>
-      <c r="F111" t="s">
-        <v>215</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -4861,10 +4858,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>215</v>
+      </c>
+      <c r="F112" t="s">
         <v>216</v>
-      </c>
-      <c r="F112" t="s">
-        <v>217</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4890,10 +4887,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>217</v>
+      </c>
+      <c r="F113" t="s">
         <v>218</v>
-      </c>
-      <c r="F113" t="s">
-        <v>219</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -4919,10 +4916,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>219</v>
+      </c>
+      <c r="F114" t="s">
         <v>220</v>
-      </c>
-      <c r="F114" t="s">
-        <v>221</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -4948,10 +4945,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>36</v>
+      </c>
+      <c r="F115" t="s">
         <v>37</v>
-      </c>
-      <c r="F115" t="s">
-        <v>38</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4977,10 +4974,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>221</v>
+      </c>
+      <c r="F116" t="s">
         <v>222</v>
-      </c>
-      <c r="F116" t="s">
-        <v>223</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5006,10 +5003,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>223</v>
+      </c>
+      <c r="F117" t="s">
         <v>224</v>
-      </c>
-      <c r="F117" t="s">
-        <v>225</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5035,10 +5032,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>225</v>
+      </c>
+      <c r="F118" t="s">
         <v>226</v>
-      </c>
-      <c r="F118" t="s">
-        <v>227</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5064,10 +5061,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>227</v>
+      </c>
+      <c r="F119" t="s">
         <v>228</v>
-      </c>
-      <c r="F119" t="s">
-        <v>229</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5093,10 +5090,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>229</v>
+      </c>
+      <c r="F120" t="s">
         <v>230</v>
-      </c>
-      <c r="F120" t="s">
-        <v>231</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5122,10 +5119,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>231</v>
+      </c>
+      <c r="F121" t="s">
         <v>232</v>
-      </c>
-      <c r="F121" t="s">
-        <v>233</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5151,10 +5148,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>233</v>
+      </c>
+      <c r="F122" t="s">
         <v>234</v>
-      </c>
-      <c r="F122" t="s">
-        <v>235</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5180,10 +5177,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>235</v>
+      </c>
+      <c r="F123" t="s">
         <v>236</v>
-      </c>
-      <c r="F123" t="s">
-        <v>237</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5209,10 +5206,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>237</v>
+      </c>
+      <c r="F124" t="s">
         <v>238</v>
-      </c>
-      <c r="F124" t="s">
-        <v>239</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5238,10 +5235,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>239</v>
+      </c>
+      <c r="F125" t="s">
         <v>240</v>
-      </c>
-      <c r="F125" t="s">
-        <v>241</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5267,10 +5264,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>241</v>
+      </c>
+      <c r="F126" t="s">
         <v>242</v>
-      </c>
-      <c r="F126" t="s">
-        <v>243</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5296,10 +5293,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>243</v>
+      </c>
+      <c r="F127" t="s">
         <v>244</v>
-      </c>
-      <c r="F127" t="s">
-        <v>245</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5325,10 +5322,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>245</v>
+      </c>
+      <c r="F128" t="s">
         <v>246</v>
-      </c>
-      <c r="F128" t="s">
-        <v>247</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5354,10 +5351,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>247</v>
+      </c>
+      <c r="F129" t="s">
         <v>248</v>
-      </c>
-      <c r="F129" t="s">
-        <v>249</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5383,10 +5380,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>249</v>
+      </c>
+      <c r="F130" t="s">
         <v>250</v>
-      </c>
-      <c r="F130" t="s">
-        <v>251</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5412,10 +5409,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>251</v>
+      </c>
+      <c r="F131" t="s">
         <v>252</v>
-      </c>
-      <c r="F131" t="s">
-        <v>253</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5441,10 +5438,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>253</v>
+      </c>
+      <c r="F132" t="s">
         <v>254</v>
-      </c>
-      <c r="F132" t="s">
-        <v>255</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5470,10 +5467,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>255</v>
+      </c>
+      <c r="F133" t="s">
         <v>256</v>
-      </c>
-      <c r="F133" t="s">
-        <v>257</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5499,10 +5496,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>257</v>
+      </c>
+      <c r="F134" t="s">
         <v>258</v>
-      </c>
-      <c r="F134" t="s">
-        <v>259</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5528,10 +5525,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>259</v>
+      </c>
+      <c r="F135" t="s">
         <v>260</v>
-      </c>
-      <c r="F135" t="s">
-        <v>261</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5557,10 +5554,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>261</v>
+      </c>
+      <c r="F136" t="s">
         <v>262</v>
-      </c>
-      <c r="F136" t="s">
-        <v>263</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5586,10 +5583,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>263</v>
+      </c>
+      <c r="F137" t="s">
         <v>264</v>
-      </c>
-      <c r="F137" t="s">
-        <v>265</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5615,10 +5612,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>265</v>
+      </c>
+      <c r="F138" t="s">
         <v>266</v>
-      </c>
-      <c r="F138" t="s">
-        <v>267</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5644,10 +5641,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>267</v>
+      </c>
+      <c r="F139" t="s">
         <v>268</v>
-      </c>
-      <c r="F139" t="s">
-        <v>269</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5673,10 +5670,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>269</v>
+      </c>
+      <c r="F140" t="s">
         <v>270</v>
-      </c>
-      <c r="F140" t="s">
-        <v>271</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5702,10 +5699,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>271</v>
+      </c>
+      <c r="F141" t="s">
         <v>272</v>
-      </c>
-      <c r="F141" t="s">
-        <v>273</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5731,10 +5728,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>273</v>
+      </c>
+      <c r="F142" t="s">
         <v>274</v>
-      </c>
-      <c r="F142" t="s">
-        <v>275</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5760,10 +5757,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>275</v>
+      </c>
+      <c r="F143" t="s">
         <v>276</v>
-      </c>
-      <c r="F143" t="s">
-        <v>277</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5789,10 +5786,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>277</v>
+      </c>
+      <c r="F144" t="s">
         <v>278</v>
-      </c>
-      <c r="F144" t="s">
-        <v>279</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5818,10 +5815,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>279</v>
+      </c>
+      <c r="F145" t="s">
         <v>280</v>
-      </c>
-      <c r="F145" t="s">
-        <v>281</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5847,10 +5844,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>281</v>
+      </c>
+      <c r="F146" t="s">
         <v>282</v>
-      </c>
-      <c r="F146" t="s">
-        <v>283</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5876,10 +5873,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>283</v>
+      </c>
+      <c r="F147" t="s">
         <v>284</v>
-      </c>
-      <c r="F147" t="s">
-        <v>285</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5905,10 +5902,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>285</v>
+      </c>
+      <c r="F148" t="s">
         <v>286</v>
-      </c>
-      <c r="F148" t="s">
-        <v>287</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5934,10 +5931,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>287</v>
+      </c>
+      <c r="F149" t="s">
         <v>288</v>
-      </c>
-      <c r="F149" t="s">
-        <v>289</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5963,10 +5960,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>289</v>
+      </c>
+      <c r="F150" t="s">
         <v>290</v>
-      </c>
-      <c r="F150" t="s">
-        <v>291</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5992,10 +5989,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>291</v>
+      </c>
+      <c r="F151" t="s">
         <v>292</v>
-      </c>
-      <c r="F151" t="s">
-        <v>293</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6021,10 +6018,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>293</v>
+      </c>
+      <c r="F152" t="s">
         <v>294</v>
-      </c>
-      <c r="F152" t="s">
-        <v>295</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6050,10 +6047,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>295</v>
+      </c>
+      <c r="F153" t="s">
         <v>296</v>
-      </c>
-      <c r="F153" t="s">
-        <v>297</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6079,10 +6076,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>297</v>
+      </c>
+      <c r="F154" t="s">
         <v>298</v>
-      </c>
-      <c r="F154" t="s">
-        <v>299</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6108,10 +6105,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>299</v>
+      </c>
+      <c r="F155" t="s">
         <v>300</v>
-      </c>
-      <c r="F155" t="s">
-        <v>301</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -6137,10 +6134,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>301</v>
+      </c>
+      <c r="F156" t="s">
         <v>302</v>
-      </c>
-      <c r="F156" t="s">
-        <v>303</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6166,10 +6163,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>303</v>
+      </c>
+      <c r="F157" t="s">
         <v>304</v>
-      </c>
-      <c r="F157" t="s">
-        <v>305</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6195,10 +6192,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>305</v>
+      </c>
+      <c r="F158" t="s">
         <v>306</v>
-      </c>
-      <c r="F158" t="s">
-        <v>307</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6224,10 +6221,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>307</v>
+      </c>
+      <c r="F159" t="s">
         <v>308</v>
-      </c>
-      <c r="F159" t="s">
-        <v>309</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6253,10 +6250,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>309</v>
+      </c>
+      <c r="F160" t="s">
         <v>310</v>
-      </c>
-      <c r="F160" t="s">
-        <v>311</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6282,10 +6279,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>311</v>
+      </c>
+      <c r="F161" t="s">
         <v>312</v>
-      </c>
-      <c r="F161" t="s">
-        <v>313</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6311,10 +6308,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>313</v>
+      </c>
+      <c r="F162" t="s">
         <v>314</v>
-      </c>
-      <c r="F162" t="s">
-        <v>315</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6340,10 +6337,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>315</v>
+      </c>
+      <c r="F163" t="s">
         <v>316</v>
-      </c>
-      <c r="F163" t="s">
-        <v>317</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6369,10 +6366,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>317</v>
+      </c>
+      <c r="F164" t="s">
         <v>318</v>
-      </c>
-      <c r="F164" t="s">
-        <v>319</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6398,10 +6395,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>319</v>
+      </c>
+      <c r="F165" t="s">
         <v>320</v>
-      </c>
-      <c r="F165" t="s">
-        <v>321</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6427,10 +6424,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>321</v>
+      </c>
+      <c r="F166" t="s">
         <v>322</v>
-      </c>
-      <c r="F166" t="s">
-        <v>323</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6456,10 +6453,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>323</v>
+      </c>
+      <c r="F167" t="s">
         <v>324</v>
-      </c>
-      <c r="F167" t="s">
-        <v>325</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6485,10 +6482,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>325</v>
+      </c>
+      <c r="F168" t="s">
         <v>326</v>
-      </c>
-      <c r="F168" t="s">
-        <v>327</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6514,10 +6511,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>327</v>
+      </c>
+      <c r="F169" t="s">
         <v>328</v>
-      </c>
-      <c r="F169" t="s">
-        <v>329</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6543,10 +6540,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>329</v>
+      </c>
+      <c r="F170" t="s">
         <v>330</v>
-      </c>
-      <c r="F170" t="s">
-        <v>331</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6572,10 +6569,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>331</v>
+      </c>
+      <c r="F171" t="s">
         <v>332</v>
-      </c>
-      <c r="F171" t="s">
-        <v>333</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6601,10 +6598,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>333</v>
+      </c>
+      <c r="F172" t="s">
         <v>334</v>
-      </c>
-      <c r="F172" t="s">
-        <v>335</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6630,10 +6627,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>335</v>
+      </c>
+      <c r="F173" t="s">
         <v>336</v>
-      </c>
-      <c r="F173" t="s">
-        <v>337</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6659,10 +6656,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>337</v>
+      </c>
+      <c r="F174" t="s">
         <v>338</v>
-      </c>
-      <c r="F174" t="s">
-        <v>339</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6688,10 +6685,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>339</v>
+      </c>
+      <c r="F175" t="s">
         <v>340</v>
-      </c>
-      <c r="F175" t="s">
-        <v>341</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6717,10 +6714,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>341</v>
+      </c>
+      <c r="F176" t="s">
         <v>342</v>
-      </c>
-      <c r="F176" t="s">
-        <v>343</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6746,10 +6743,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>343</v>
+      </c>
+      <c r="F177" t="s">
         <v>344</v>
-      </c>
-      <c r="F177" t="s">
-        <v>345</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6775,10 +6772,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>345</v>
+      </c>
+      <c r="F178" t="s">
         <v>346</v>
-      </c>
-      <c r="F178" t="s">
-        <v>347</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6804,10 +6801,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>347</v>
+      </c>
+      <c r="F179" t="s">
         <v>348</v>
-      </c>
-      <c r="F179" t="s">
-        <v>349</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6833,10 +6830,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>349</v>
+      </c>
+      <c r="F180" t="s">
         <v>350</v>
-      </c>
-      <c r="F180" t="s">
-        <v>351</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6862,10 +6859,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>351</v>
+      </c>
+      <c r="F181" t="s">
         <v>352</v>
-      </c>
-      <c r="F181" t="s">
-        <v>353</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6891,10 +6888,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>353</v>
+      </c>
+      <c r="F182" t="s">
         <v>354</v>
-      </c>
-      <c r="F182" t="s">
-        <v>355</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6920,10 +6917,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>355</v>
+      </c>
+      <c r="F183" t="s">
         <v>356</v>
-      </c>
-      <c r="F183" t="s">
-        <v>357</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -6949,10 +6946,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>357</v>
+      </c>
+      <c r="F184" t="s">
         <v>358</v>
-      </c>
-      <c r="F184" t="s">
-        <v>359</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6978,10 +6975,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>359</v>
+      </c>
+      <c r="F185" t="s">
         <v>360</v>
-      </c>
-      <c r="F185" t="s">
-        <v>361</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -7007,10 +7004,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>361</v>
+      </c>
+      <c r="F186" t="s">
         <v>362</v>
-      </c>
-      <c r="F186" t="s">
-        <v>363</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -7036,10 +7033,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>363</v>
+      </c>
+      <c r="F187" t="s">
         <v>364</v>
-      </c>
-      <c r="F187" t="s">
-        <v>365</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7065,10 +7062,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>365</v>
+      </c>
+      <c r="F188" t="s">
         <v>366</v>
-      </c>
-      <c r="F188" t="s">
-        <v>367</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7094,10 +7091,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>367</v>
+      </c>
+      <c r="F189" t="s">
         <v>368</v>
-      </c>
-      <c r="F189" t="s">
-        <v>369</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7123,10 +7120,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>369</v>
+      </c>
+      <c r="F190" t="s">
         <v>370</v>
-      </c>
-      <c r="F190" t="s">
-        <v>371</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7152,10 +7149,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>371</v>
+      </c>
+      <c r="F191" t="s">
         <v>372</v>
-      </c>
-      <c r="F191" t="s">
-        <v>373</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -7181,10 +7178,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>373</v>
+      </c>
+      <c r="F192" t="s">
         <v>374</v>
-      </c>
-      <c r="F192" t="s">
-        <v>375</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7210,10 +7207,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>375</v>
+      </c>
+      <c r="F193" t="s">
         <v>376</v>
-      </c>
-      <c r="F193" t="s">
-        <v>377</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7239,10 +7236,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>377</v>
+      </c>
+      <c r="F194" t="s">
         <v>378</v>
-      </c>
-      <c r="F194" t="s">
-        <v>379</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7268,10 +7265,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>379</v>
+      </c>
+      <c r="F195" t="s">
         <v>380</v>
-      </c>
-      <c r="F195" t="s">
-        <v>381</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -7297,10 +7294,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>381</v>
+      </c>
+      <c r="F196" t="s">
         <v>382</v>
-      </c>
-      <c r="F196" t="s">
-        <v>383</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7326,10 +7323,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>383</v>
+      </c>
+      <c r="F197" t="s">
         <v>384</v>
-      </c>
-      <c r="F197" t="s">
-        <v>385</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7355,10 +7352,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>385</v>
+      </c>
+      <c r="F198" t="s">
         <v>386</v>
-      </c>
-      <c r="F198" t="s">
-        <v>387</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7384,10 +7381,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>387</v>
+      </c>
+      <c r="F199" t="s">
         <v>388</v>
-      </c>
-      <c r="F199" t="s">
-        <v>389</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -7413,10 +7410,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>389</v>
+      </c>
+      <c r="F200" t="s">
         <v>390</v>
-      </c>
-      <c r="F200" t="s">
-        <v>391</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7442,10 +7439,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>391</v>
+      </c>
+      <c r="F201" t="s">
         <v>392</v>
-      </c>
-      <c r="F201" t="s">
-        <v>393</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7471,10 +7468,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>393</v>
+      </c>
+      <c r="F202" t="s">
         <v>394</v>
-      </c>
-      <c r="F202" t="s">
-        <v>395</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -7500,10 +7497,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>395</v>
+      </c>
+      <c r="F203" t="s">
         <v>396</v>
-      </c>
-      <c r="F203" t="s">
-        <v>397</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7529,10 +7526,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>397</v>
+      </c>
+      <c r="F204" t="s">
         <v>398</v>
-      </c>
-      <c r="F204" t="s">
-        <v>399</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7558,10 +7555,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>399</v>
+      </c>
+      <c r="F205" t="s">
         <v>400</v>
-      </c>
-      <c r="F205" t="s">
-        <v>401</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7587,10 +7584,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>401</v>
+      </c>
+      <c r="F206" t="s">
         <v>402</v>
-      </c>
-      <c r="F206" t="s">
-        <v>403</v>
       </c>
       <c r="G206" t="n">
         <v>3</v>
@@ -7616,10 +7613,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>403</v>
+      </c>
+      <c r="F207" t="s">
         <v>404</v>
-      </c>
-      <c r="F207" t="s">
-        <v>405</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7645,10 +7642,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>405</v>
+      </c>
+      <c r="F208" t="s">
         <v>406</v>
-      </c>
-      <c r="F208" t="s">
-        <v>407</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7674,10 +7671,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>407</v>
+      </c>
+      <c r="F209" t="s">
         <v>408</v>
-      </c>
-      <c r="F209" t="s">
-        <v>409</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7703,10 +7700,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>409</v>
+      </c>
+      <c r="F210" t="s">
         <v>410</v>
-      </c>
-      <c r="F210" t="s">
-        <v>411</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7732,10 +7729,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>411</v>
+      </c>
+      <c r="F211" t="s">
         <v>412</v>
-      </c>
-      <c r="F211" t="s">
-        <v>413</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7761,10 +7758,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>413</v>
+      </c>
+      <c r="F212" t="s">
         <v>414</v>
-      </c>
-      <c r="F212" t="s">
-        <v>415</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7790,10 +7787,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>415</v>
+      </c>
+      <c r="F213" t="s">
         <v>416</v>
-      </c>
-      <c r="F213" t="s">
-        <v>417</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -7819,10 +7816,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>417</v>
+      </c>
+      <c r="F214" t="s">
         <v>418</v>
-      </c>
-      <c r="F214" t="s">
-        <v>419</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
